--- a/biology/Écologie/Écosystème_insulaire/Écosystème_insulaire.xlsx
+++ b/biology/Écologie/Écosystème_insulaire/Écosystème_insulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cosyst%C3%A8me_insulaire</t>
+          <t>Écosystème_insulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les écosystèmes insulaires sont des biotopes réduits, isolés et situés à distance importante du plus proche biotope similaire. Ils peuvent être une île océanique ou continentale (lacs de cratère, sommets montagneux, réserves naturelles, parcs nationaux).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cosyst%C3%A8me_insulaire</t>
+          <t>Écosystème_insulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principaux caractères écologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La richesse spécifique est d’autant plus grande que la surface de l’île est grande et que l’île est proche du continent.
 Les peuplements insulaires sont toujours plus pauvres que les habitats continentaux similaires : 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cosyst%C3%A8me_insulaire</t>
+          <t>Écosystème_insulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Théorie de l’équilibre dynamique de Mac Arthur et Wilson</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Si on regarde un critère tel que le nombre d’espèces, celui-ci est stable mais entre elles les espèces varient.
 L’hypothèse de base est que la richesse spécifique des populations insulaires dépend de l’équilibre entre le taux d’immigration (I) et le taux d’extinction (E).
